--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
@@ -1594,104 +1594,104 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>19</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>3</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>19</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>19</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>19</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>19</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
@@ -1594,104 +1594,104 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>0</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
